--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>602812000</v>
+        <v>30567072.70345114</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>113947000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113947000</v>
+        <v>43319603.53247858</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15060724.82116433</v>
       </c>
       <c r="G2" t="n">
-        <v>2679468000</v>
+        <v>1321829219.687219</v>
       </c>
       <c r="H2" t="n">
-        <v>505917000</v>
+        <v>196154967.0497343</v>
       </c>
       <c r="I2" t="n">
-        <v>170713000</v>
+        <v>94314155.99287523</v>
       </c>
       <c r="J2" t="n">
-        <v>1910688000</v>
+        <v>943240175.3482686</v>
       </c>
       <c r="K2" t="n">
         <v>581940000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>4375107329.387688</v>
+        <v>1413564545.386277</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>3075680670.612313</v>
+        <v>1258868835.345966</v>
       </c>
       <c r="N2" t="n">
-        <v>1142657000</v>
+        <v>688802753.8950881</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>437654209.712491</v>
+        <v>173638768.2192746</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>483734790.2875091</v>
+        <v>208957176.3231797</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>64242481.08609886</v>
+        <v>39045774.37389295</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>354548518.9139011</v>
+        <v>91883619.56299256</v>
       </c>
       <c r="S2" t="n">
-        <v>1790425000</v>
+        <v>988541726.3722286</v>
       </c>
       <c r="T2" t="n">
-        <v>3034809000</v>
+        <v>1153798925.401938</v>
       </c>
       <c r="U2" t="n">
-        <v>721686000</v>
+        <v>305107951.8208808</v>
       </c>
       <c r="V2" t="n">
-        <v>1340262000</v>
+        <v>673709404.4238582</v>
       </c>
       <c r="W2" t="n">
-        <v>172542000</v>
+        <v>52725141.85250957</v>
       </c>
       <c r="X2" t="n">
-        <v>291677000</v>
+        <v>107159370.4868616</v>
       </c>
       <c r="Y2" t="n">
-        <v>2418699000</v>
+        <v>952338745.3699557</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>1573762772.90367</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>573963450.0171931</v>
+        <v>17908310.1635801</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>369329777.0791374</v>
+        <v>2756098605.246353</v>
       </c>
       <c r="AC2" t="n">
-        <v>14704318000</v>
+        <v>8810599650.25174</v>
       </c>
       <c r="AD2" t="n">
-        <v>42875970000</v>
+        <v>19405026931.23812</v>
       </c>
       <c r="AE2" t="n">
         <v>14361345000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10329254000</v>
+        <v>5254053823.599099</v>
       </c>
       <c r="AG2" t="n">
-        <v>2958910000</v>
+        <v>5339514835.915099</v>
       </c>
       <c r="AH2" t="n">
         <v>3985360000</v>
@@ -3777,25 +3777,25 @@
         <v>31308703000</v>
       </c>
       <c r="AK2" t="n">
-        <v>4953010000</v>
+        <v>2805259453.188848</v>
       </c>
       <c r="AL2" t="n">
-        <v>84178163000</v>
+        <v>35964877408.46288</v>
       </c>
       <c r="AM2" t="n">
-        <v>57392225000</v>
+        <v>164855092000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5989600000</v>
+        <v>3010072557.484385</v>
       </c>
       <c r="AO2" t="n">
-        <v>40953010000</v>
+        <v>22960498368.84655</v>
       </c>
       <c r="AP2" t="n">
-        <v>3466054000</v>
+        <v>1574208322.308992</v>
       </c>
       <c r="AQ2" t="n">
-        <v>670437000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30567072.70345114</v>
+        <v>19614628.58761597</v>
       </c>
       <c r="C2" s="32" t="n">
         <v>0</v>
@@ -3681,91 +3681,91 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43319603.53247858</v>
+        <v>27797818.32875381</v>
       </c>
       <c r="F2" t="n">
-        <v>15060724.82116433</v>
+        <v>9664338.044188131</v>
       </c>
       <c r="G2" t="n">
-        <v>1321829219.687219</v>
+        <v>848206481.921174</v>
       </c>
       <c r="H2" t="n">
-        <v>196154967.0497343</v>
+        <v>125870961.2668337</v>
       </c>
       <c r="I2" t="n">
-        <v>94314155.99287523</v>
+        <v>60520585.60863952</v>
       </c>
       <c r="J2" t="n">
-        <v>943240175.3482686</v>
+        <v>605269136.7559441</v>
       </c>
       <c r="K2" t="n">
         <v>581940000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>1413564545.386277</v>
+        <v>907072254.2313848</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>1258868835.345966</v>
+        <v>807805342.8730179</v>
       </c>
       <c r="N2" t="n">
-        <v>688802753.8950881</v>
+        <v>441998823.9912095</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>173638768.2192746</v>
+        <v>111422509.445848</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>208957176.3231797</v>
+        <v>134086029.2399999</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>39045774.37389295</v>
+        <v>25055338.78529672</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>91883619.56299256</v>
+        <v>58960931.21178797</v>
       </c>
       <c r="S2" t="n">
-        <v>988541726.3722286</v>
+        <v>634338753.8042783</v>
       </c>
       <c r="T2" t="n">
-        <v>1153798925.401938</v>
+        <v>740382882.1329786</v>
       </c>
       <c r="U2" t="n">
-        <v>305107951.8208808</v>
+        <v>195785157.844674</v>
       </c>
       <c r="V2" t="n">
-        <v>673709404.4238582</v>
+        <v>432313550.9886743</v>
       </c>
       <c r="W2" t="n">
-        <v>52725141.85250957</v>
+        <v>33833271.66129252</v>
       </c>
       <c r="X2" t="n">
-        <v>107159370.4868616</v>
+        <v>68763249.66326316</v>
       </c>
       <c r="Y2" t="n">
-        <v>952338745.3699557</v>
+        <v>611107611.1622179</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>1573762772.90367</v>
+        <v>1552410174.347047</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>17908310.1635801</v>
+        <v>619057949.4112517</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>2756098605.246353</v>
+        <v>2718704235.450889</v>
       </c>
       <c r="AC2" t="n">
-        <v>8810599650.25174</v>
+        <v>5653686286.889861</v>
       </c>
       <c r="AD2" t="n">
-        <v>19405026931.23812</v>
+        <v>12452039476.64728</v>
       </c>
       <c r="AE2" t="n">
         <v>14361345000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5254053823.599099</v>
+        <v>3371481310.266405</v>
       </c>
       <c r="AG2" t="n">
-        <v>5339514835.915099</v>
+        <v>3426320909.450881</v>
       </c>
       <c r="AH2" t="n">
         <v>3985360000</v>
@@ -3777,22 +3777,22 @@
         <v>31308703000</v>
       </c>
       <c r="AK2" t="n">
-        <v>2805259453.188848</v>
+        <v>1800110949.452661</v>
       </c>
       <c r="AL2" t="n">
-        <v>35964877408.46288</v>
+        <v>23078353606.50983</v>
       </c>
       <c r="AM2" t="n">
         <v>164855092000</v>
       </c>
       <c r="AN2" t="n">
-        <v>3010072557.484385</v>
+        <v>5989600000</v>
       </c>
       <c r="AO2" t="n">
-        <v>22960498368.84655</v>
+        <v>40953010000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1574208322.308992</v>
+        <v>1010155989.132016</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
